--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_029.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_029.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -499,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -913,7 +925,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -936,7 +948,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -982,7 +994,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -1005,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1097,7 +1109,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -1120,7 +1132,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1143,7 +1155,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1166,7 +1178,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1505,19 +1517,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1540,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1563,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1586,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1609,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1747,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1954,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2023,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2046,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2138,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2276,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2322,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2713,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2736,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3058,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3161,967 +3173,1151 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E153" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E154" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_029.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_029.xlsx
@@ -41,22 +41,22 @@
     <t>Decreto del Tribunale</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Allegato aggiuntivo</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.9.9</t>
+  </si>
+  <si>
     <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Allegato aggiuntivo</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.9.9</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -695,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -718,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -764,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -787,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -833,7 +833,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
@@ -856,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -879,7 +879,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
@@ -902,7 +902,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
@@ -925,7 +925,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
@@ -948,7 +948,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -971,7 +971,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -994,7 +994,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>39</v>
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -1040,7 +1040,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -1063,7 +1063,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -1086,7 +1086,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>39</v>
@@ -1109,7 +1109,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -1132,7 +1132,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1155,7 +1155,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1178,7 +1178,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1201,7 +1201,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1224,7 +1224,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>39</v>
@@ -1247,7 +1247,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
@@ -1270,7 +1270,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -1293,7 +1293,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
@@ -1316,7 +1316,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
@@ -1339,7 +1339,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>39</v>
@@ -1362,7 +1362,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -1385,7 +1385,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1408,7 +1408,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1431,7 +1431,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1454,7 +1454,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -1477,7 +1477,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1500,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
@@ -1523,7 +1523,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>39</v>
@@ -1546,7 +1546,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
@@ -1569,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>104</v>
@@ -1592,7 +1592,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>104</v>
@@ -1615,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>104</v>
@@ -1638,7 +1638,7 @@
         <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>104</v>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>104</v>
@@ -1684,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>104</v>
@@ -1707,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>104</v>
@@ -1730,7 +1730,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>104</v>
@@ -1753,7 +1753,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>104</v>
@@ -1776,7 +1776,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>104</v>
@@ -1799,7 +1799,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>104</v>
@@ -1822,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>104</v>
@@ -1845,7 +1845,7 @@
         <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>104</v>
@@ -1868,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>104</v>
@@ -1891,7 +1891,7 @@
         <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>104</v>
@@ -1914,7 +1914,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>104</v>
@@ -1937,7 +1937,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>104</v>
@@ -1960,7 +1960,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>104</v>
@@ -1983,7 +1983,7 @@
         <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>104</v>
@@ -2006,7 +2006,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>104</v>
@@ -2029,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>104</v>
@@ -2052,7 +2052,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>104</v>
@@ -2075,7 +2075,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>104</v>
@@ -2098,7 +2098,7 @@
         <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>104</v>
@@ -2121,7 +2121,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>104</v>
@@ -2144,7 +2144,7 @@
         <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>104</v>
@@ -2167,7 +2167,7 @@
         <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>104</v>
@@ -2190,7 +2190,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>104</v>
@@ -2213,7 +2213,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>104</v>
@@ -2236,7 +2236,7 @@
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>104</v>
@@ -2259,7 +2259,7 @@
         <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>104</v>
@@ -2282,7 +2282,7 @@
         <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>104</v>
@@ -2305,7 +2305,7 @@
         <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>104</v>
@@ -2328,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>109</v>
@@ -2351,7 +2351,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>109</v>
@@ -2374,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>109</v>
@@ -2397,7 +2397,7 @@
         <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>109</v>
@@ -2420,7 +2420,7 @@
         <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>109</v>
@@ -2443,7 +2443,7 @@
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>109</v>
@@ -2466,7 +2466,7 @@
         <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>109</v>
@@ -2489,7 +2489,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>109</v>
@@ -2512,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>109</v>
@@ -2535,7 +2535,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>109</v>
@@ -2558,7 +2558,7 @@
         <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>109</v>
@@ -2581,7 +2581,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>109</v>
@@ -2604,7 +2604,7 @@
         <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>109</v>
@@ -2627,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>109</v>
@@ -2650,7 +2650,7 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>109</v>
@@ -2673,7 +2673,7 @@
         <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>109</v>
@@ -2696,7 +2696,7 @@
         <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>109</v>
@@ -2719,7 +2719,7 @@
         <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>109</v>
@@ -2742,7 +2742,7 @@
         <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>109</v>
@@ -2765,7 +2765,7 @@
         <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>109</v>
@@ -2788,7 +2788,7 @@
         <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>109</v>
@@ -2811,7 +2811,7 @@
         <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>109</v>
@@ -2834,7 +2834,7 @@
         <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>109</v>
@@ -2857,7 +2857,7 @@
         <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>109</v>
@@ -2880,7 +2880,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>109</v>
@@ -2903,7 +2903,7 @@
         <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>109</v>
@@ -2926,7 +2926,7 @@
         <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>109</v>
@@ -2949,7 +2949,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>109</v>
@@ -2972,7 +2972,7 @@
         <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>109</v>
@@ -2995,7 +2995,7 @@
         <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>109</v>
@@ -3018,7 +3018,7 @@
         <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>109</v>
@@ -3041,7 +3041,7 @@
         <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>109</v>
@@ -3064,7 +3064,7 @@
         <v>106</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>109</v>
@@ -3087,7 +3087,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>112</v>
@@ -3110,7 +3110,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>112</v>
@@ -3133,7 +3133,7 @@
         <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>112</v>
@@ -3156,7 +3156,7 @@
         <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>112</v>
@@ -3179,7 +3179,7 @@
         <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>112</v>
@@ -3202,7 +3202,7 @@
         <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>112</v>
@@ -3225,7 +3225,7 @@
         <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>112</v>
@@ -3248,7 +3248,7 @@
         <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>112</v>
@@ -3271,7 +3271,7 @@
         <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>112</v>
@@ -3294,7 +3294,7 @@
         <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>112</v>
@@ -3317,7 +3317,7 @@
         <v>38</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>132</v>
@@ -3340,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>132</v>
@@ -3363,7 +3363,7 @@
         <v>43</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>132</v>
@@ -3386,7 +3386,7 @@
         <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>132</v>
@@ -3409,7 +3409,7 @@
         <v>47</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>132</v>
@@ -3432,7 +3432,7 @@
         <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>132</v>
@@ -3455,7 +3455,7 @@
         <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>132</v>
@@ -3478,7 +3478,7 @@
         <v>53</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>132</v>
@@ -3501,7 +3501,7 @@
         <v>55</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>132</v>
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>132</v>
@@ -3547,7 +3547,7 @@
         <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>132</v>
@@ -3570,7 +3570,7 @@
         <v>61</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>132</v>
@@ -3593,7 +3593,7 @@
         <v>63</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>132</v>
@@ -3616,7 +3616,7 @@
         <v>65</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>132</v>
@@ -3639,7 +3639,7 @@
         <v>67</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>132</v>
@@ -3662,7 +3662,7 @@
         <v>69</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>132</v>
@@ -3685,7 +3685,7 @@
         <v>71</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>132</v>
@@ -3708,7 +3708,7 @@
         <v>73</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>132</v>
@@ -3731,7 +3731,7 @@
         <v>75</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>132</v>
@@ -3754,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>132</v>
@@ -3777,7 +3777,7 @@
         <v>79</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>132</v>
@@ -3800,7 +3800,7 @@
         <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>132</v>
@@ -3823,7 +3823,7 @@
         <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>132</v>
@@ -3846,7 +3846,7 @@
         <v>85</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>132</v>
@@ -3869,7 +3869,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>132</v>
@@ -3892,7 +3892,7 @@
         <v>89</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>132</v>
@@ -3915,7 +3915,7 @@
         <v>91</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>132</v>
@@ -3938,7 +3938,7 @@
         <v>93</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>132</v>
@@ -3961,7 +3961,7 @@
         <v>95</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>132</v>
@@ -3984,7 +3984,7 @@
         <v>97</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>132</v>
@@ -4007,7 +4007,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>132</v>
@@ -4030,7 +4030,7 @@
         <v>101</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>132</v>
@@ -4053,7 +4053,7 @@
         <v>116</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>134</v>
@@ -4076,7 +4076,7 @@
         <v>118</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>134</v>
@@ -4099,7 +4099,7 @@
         <v>120</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>134</v>
@@ -4122,7 +4122,7 @@
         <v>122</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>134</v>
@@ -4145,7 +4145,7 @@
         <v>124</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>134</v>
@@ -4168,7 +4168,7 @@
         <v>126</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>134</v>
@@ -4191,7 +4191,7 @@
         <v>128</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>134</v>
@@ -4214,7 +4214,7 @@
         <v>136</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>134</v>
@@ -4237,7 +4237,7 @@
         <v>138</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>134</v>
@@ -4260,7 +4260,7 @@
         <v>140</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>134</v>
@@ -4283,7 +4283,7 @@
         <v>141</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>18</v>
@@ -4306,7 +4306,7 @@
         <v>144</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>145</v>
